--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.892226779057069</v>
+        <v>13.892226836868616</v>
       </c>
       <c r="C2">
-        <v>3.4952059678772116</v>
+        <v>3.4952060053896048</v>
       </c>
       <c r="D2">
-        <v>22.140787780706802</v>
+        <v>22.140787836101765</v>
       </c>
       <c r="E2">
-        <v>1.2099936311213071</v>
+        <v>1.2099936787428476</v>
       </c>
       <c r="F2">
-        <v>43.413697379801761</v>
+        <v>43.413697394727592</v>
       </c>
       <c r="G2">
-        <v>12.003723377096776</v>
+        <v>12.00372342257765</v>
       </c>
       <c r="H2">
-        <v>-4.4974213170708879</v>
+        <v>-4.4974212751371283</v>
       </c>
       <c r="I2">
-        <v>11.310387480132988</v>
+        <v>11.31038752271084</v>
       </c>
       <c r="J2">
-        <v>7.1476932922904552</v>
+        <v>7.1476933390556781</v>
       </c>
       <c r="K2">
-        <v>-9.9985819855367879</v>
+        <v>-9.9985819405722509</v>
       </c>
       <c r="L2">
-        <v>6.9737093718727294</v>
+        <v>6.9737094133871551</v>
       </c>
       <c r="N2">
-        <v>0.42720872256452935</v>
+        <v>0.42720878421496877</v>
       </c>
       <c r="O2">
-        <v>7.8053945461396665</v>
+        <v>7.8053945860655745</v>
       </c>
       <c r="P2">
-        <v>11.911261061970265</v>
+        <v>11.911261122497365</v>
       </c>
       <c r="Q2">
-        <v>3.3380285830781986</v>
+        <v>3.338028632351012</v>
       </c>
       <c r="S2">
-        <v>16.831470071499893</v>
+        <v>16.831470088969212</v>
       </c>
       <c r="V2">
-        <v>-3.1568608834213308</v>
+        <v>-3.1568608314697713</v>
       </c>
       <c r="W2">
-        <v>13.293804243305004</v>
+        <v>13.293804284857174</v>
       </c>
       <c r="X2">
-        <v>-4.9628922743516739</v>
+        <v>-4.962892237146292</v>
       </c>
       <c r="AA2">
-        <v>2.1085044514603908</v>
+        <v>2.1085044948439986</v>
       </c>
       <c r="AB2">
-        <v>2.5064540213518285</v>
+        <v>2.5064540539828215</v>
       </c>
       <c r="AC2">
-        <v>6.9531996966053384</v>
+        <v>6.9531997400429759</v>
       </c>
       <c r="AD2">
-        <v>0.72942925521346069</v>
+        <v>0.72942932713226583</v>
       </c>
       <c r="AE2">
-        <v>-7.3470654515751335</v>
+        <v>-7.3470654454206965</v>
       </c>
       <c r="AF2">
-        <v>1.8150596708134401</v>
+        <v>1.8150596905509246</v>
       </c>
       <c r="AG2">
-        <v>1.3854687829858676</v>
+        <v>1.3854688393844299</v>
       </c>
       <c r="AH2">
-        <v>4.4746477677308292</v>
+        <v>4.4746478169441275</v>
       </c>
       <c r="AI2">
-        <v>31.744884556140761</v>
+        <v>31.744884585121497</v>
       </c>
       <c r="AJ2">
-        <v>4.5832898508983249</v>
+        <v>4.5832898928116492</v>
       </c>
       <c r="AK2">
-        <v>4.1426643818625735</v>
+        <v>4.1426644196525046</v>
       </c>
       <c r="AL2">
-        <v>-7.5711557619280256</v>
+        <v>-7.5711556965520401</v>
       </c>
       <c r="AM2">
-        <v>1.6683949779008742</v>
+        <v>1.6683950344708478</v>
       </c>
       <c r="AN2">
-        <v>2.1180357167417583</v>
+        <v>2.1180357752172654</v>
       </c>
       <c r="AO2">
-        <v>-3.989213237099591</v>
+        <v>-3.9892131785781544</v>
       </c>
       <c r="AQ2">
-        <v>1.528075700961864</v>
+        <v>1.5280757406754049</v>
       </c>
       <c r="AR2">
-        <v>7.2551607545333923</v>
+        <v>7.2551607575041714</v>
       </c>
       <c r="AS2">
-        <v>-4.2951782411510635</v>
+        <v>-4.2951782050782015</v>
       </c>
       <c r="AU2">
-        <v>6.0575325069862629E-3</v>
+        <v>6.0575676244241095E-3</v>
       </c>
       <c r="AV2">
-        <v>2.9370554488039602</v>
+        <v>2.9370555202932564</v>
       </c>
       <c r="AW2">
-        <v>-2.6691241611969474</v>
+        <v>-2.6691241155527621</v>
       </c>
       <c r="AX2">
-        <v>-4.5770636623015832</v>
+        <v>-4.5770636189366769</v>
       </c>
       <c r="AY2">
-        <v>-2.1114211983958171</v>
+        <v>-2.1114211440430495</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.045095523439301</v>
+        <v>12.045095572820799</v>
       </c>
       <c r="C3">
-        <v>2.6263691532295752</v>
+        <v>2.6263691875759889</v>
       </c>
       <c r="E3">
-        <v>-10.949775977257758</v>
+        <v>-10.949775967393066</v>
       </c>
       <c r="F3">
-        <v>18.292754396628482</v>
+        <v>18.292754431670346</v>
       </c>
       <c r="G3">
-        <v>0.8963226171549934</v>
+        <v>0.89632264413313578</v>
       </c>
       <c r="H3">
-        <v>3.850058098972255</v>
+        <v>3.8500581515591534</v>
       </c>
       <c r="J3">
-        <v>2.4986779709348923</v>
+        <v>2.4986780158564841</v>
       </c>
       <c r="K3">
-        <v>19.764455658531148</v>
+        <v>19.764455706717882</v>
       </c>
       <c r="L3">
-        <v>-0.78528073977184931</v>
+        <v>-0.78528070948985373</v>
       </c>
       <c r="M3">
-        <v>5.6025147079017472</v>
+        <v>5.6026739799826544</v>
       </c>
       <c r="N3">
-        <v>2.693264579383424</v>
+        <v>2.693264624930805</v>
       </c>
       <c r="P3">
-        <v>-31.868871485775941</v>
+        <v>-31.868871441482327</v>
       </c>
       <c r="Q3">
-        <v>2.7571270905668825</v>
+        <v>2.7571271443714522</v>
       </c>
       <c r="R3">
-        <v>12.864965328809063</v>
+        <v>12.86496538971889</v>
       </c>
       <c r="W3">
-        <v>-1.0753361349628676E-2</v>
+        <v>-1.0753289802323707E-2</v>
       </c>
       <c r="AA3">
-        <v>-1.0857469939318207</v>
+        <v>-1.0857469185533546</v>
       </c>
       <c r="AB3">
-        <v>3.0024893920233353</v>
+        <v>3.0024894190932514</v>
       </c>
       <c r="AC3">
-        <v>0.28754560009286934</v>
+        <v>0.28754564663034898</v>
       </c>
       <c r="AD3">
-        <v>-3.0818762172547451</v>
+        <v>-3.0818761712220919</v>
       </c>
       <c r="AE3">
-        <v>-5.3544094157530537</v>
+        <v>-5.3544093985723578</v>
       </c>
       <c r="AF3">
-        <v>1.454223742343089</v>
+        <v>1.4542237532933768</v>
       </c>
       <c r="AG3">
-        <v>2.2949445046987478</v>
+        <v>2.2949445477285053</v>
       </c>
       <c r="AH3">
-        <v>4.286488641730557E-2</v>
+        <v>4.2864911512310755E-2</v>
       </c>
       <c r="AI3">
-        <v>2.9639461074914664</v>
+        <v>2.9639461549618034</v>
       </c>
       <c r="AJ3">
-        <v>-4.580023375672738</v>
+        <v>-4.5800233223481541</v>
       </c>
       <c r="AK3">
-        <v>4.9582682397324618</v>
+        <v>4.9582682801224962</v>
       </c>
       <c r="AL3">
-        <v>-5.9943886301327041</v>
+        <v>-5.994388583566888</v>
       </c>
       <c r="AM3">
-        <v>2.0161995283444583</v>
+        <v>2.0161996029097509</v>
       </c>
       <c r="AN3">
-        <v>11.223465730093722</v>
+        <v>11.223465781595166</v>
       </c>
       <c r="AO3">
-        <v>20.773883468111848</v>
+        <v>20.773883523733986</v>
       </c>
       <c r="AP3">
-        <v>-7.5313237236262296</v>
+        <v>-7.5313236803585255</v>
       </c>
       <c r="AQ3">
-        <v>-3.0350746118607219</v>
+        <v>-3.0350745645440895</v>
       </c>
       <c r="AS3">
-        <v>10.059810539743694</v>
+        <v>10.05981058126855</v>
       </c>
       <c r="AT3">
-        <v>-0.24705647029622924</v>
+        <v>-0.24705640704985399</v>
       </c>
       <c r="AU3">
-        <v>-4.6062786435259682</v>
+        <v>-4.6062785881009063</v>
       </c>
       <c r="AV3">
-        <v>-3.9269645260395123</v>
+        <v>-3.9269644318868302</v>
       </c>
       <c r="AW3">
-        <v>-2.5785573516517388</v>
+        <v>-2.5785573034769698</v>
       </c>
       <c r="AX3">
-        <v>-31.717240045037556</v>
+        <v>-31.717240013709443</v>
       </c>
       <c r="AY3">
-        <v>-16.707574536454445</v>
+        <v>-16.707574505489731</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,253 +401,265 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.892226836868616</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.4952060053896048</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>22.140787836101765</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.2099936787428476</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>43.413697394727592</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>12.00372342257765</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-4.4974212751371283</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.31038752271084</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.1476933390556781</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-9.9985819405722509</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.9737094133871551</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.42720878421496877</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.8053945860655745</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.911261122497365</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.338028632351012</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>16.831470088969212</v>
+        <v>16.83150341896922</v>
       </c>
       <c r="V2">
-        <v>-3.1568608314697713</v>
+        <v>-3.1568275014697917</v>
       </c>
       <c r="W2">
-        <v>13.293804284857174</v>
+        <v>13.293837614857154</v>
       </c>
       <c r="X2">
-        <v>-4.962892237146292</v>
+        <v>-4.9629255671463</v>
       </c>
       <c r="AA2">
-        <v>2.1085044948439986</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.5064540539828215</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.9531997400429759</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.72942932713226583</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-7.3470654454206965</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.8150596905509246</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.3854688393844299</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>4.4746478169441275</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>31.744884585121497</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.5832898928116492</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>4.1426644196525046</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-7.5711556965520401</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.6683950344708478</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.1180357752172654</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-3.9892131785781544</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.5280757406754049</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>7.2551607575041714</v>
+        <v>7.2551940875041794</v>
       </c>
       <c r="AS2">
-        <v>-4.2951782050782015</v>
+        <v>-4.295144875078222</v>
       </c>
       <c r="AU2">
-        <v>6.0575676244241095E-3</v>
+        <v>6.0908976244320456E-3</v>
       </c>
       <c r="AV2">
         <v>2.9370555202932564</v>
       </c>
       <c r="AW2">
-        <v>-2.6691241155527621</v>
+        <v>-2.66915744555277</v>
       </c>
       <c r="AX2">
-        <v>-4.5770636189366769</v>
+        <v>-4.5770969489366564</v>
       </c>
       <c r="AY2">
         <v>-2.1114211440430495</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>12.045095572820799</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.6263691875759889</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-10.949775967393066</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>18.292754431670346</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.89632264413313578</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.8500581515591534</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.4986780158564841</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>19.764455706717882</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-0.78528070948985373</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.6026739799826544</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.693264624930805</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-31.868871441482327</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.7571271443714522</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>12.86496538971889</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-1.0753289802323707E-2</v>
+        <v>-1.0719959802315771E-2</v>
       </c>
       <c r="AA3">
-        <v>-1.0857469185533546</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3.0024894190932514</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.28754564663034898</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-3.0818761712220919</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-5.3544093985723578</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.4542237532933768</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.2949445477285053</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.2864911512310755E-2</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.9639461549618034</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-4.5800233223481541</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.9582682801224962</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-5.994388583566888</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>2.0161996029097509</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>11.223465781595166</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>20.773883523733986</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-7.5313236803585255</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-3.0350745645440895</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>10.05981058126855</v>
       </c>
       <c r="AT3">
-        <v>-0.24705640704985399</v>
+        <v>-0.24702307704984605</v>
       </c>
       <c r="AU3">
-        <v>-4.6062785881009063</v>
+        <v>-4.6062452581008984</v>
       </c>
       <c r="AV3">
-        <v>-3.9269644318868302</v>
+        <v>-3.9269977618868381</v>
       </c>
       <c r="AW3">
-        <v>-2.5785573034769698</v>
+        <v>-2.5785239734769618</v>
       </c>
       <c r="AX3">
-        <v>-31.717240013709443</v>
+        <v>-31.717273343709422</v>
       </c>
       <c r="AY3">
         <v>-16.707574505489731</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.892260109057077</v>
-      </c>
-      <c r="C2">
-        <v>1.9585059678772154</v>
+        <v>7.8053612560655665</v>
       </c>
       <c r="D2">
-        <v>22.140787780706802</v>
+        <v>2.1180024452172574</v>
       </c>
       <c r="E2">
-        <v>-6.1033730388787149</v>
+        <v>1.5280757406754049</v>
       </c>
       <c r="F2">
         <v>43.413730709801769</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>12.045095523439301</v>
-      </c>
       <c r="C3">
-        <v>-4.0135975167704316</v>
+        <v>12.864998719718898</v>
+      </c>
+      <c r="D3">
+        <v>11.223432451595187</v>
       </c>
       <c r="E3">
-        <v>-10.94974264725775</v>
+        <v>-3.2063479174769896</v>
       </c>
       <c r="F3">
         <v>18.292721066628474</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.892260109057077</v>
+        <v>36.567242114214963</v>
       </c>
       <c r="C2">
-        <v>1.9585059678772154</v>
+        <v>7.8053612560655665</v>
       </c>
       <c r="D2">
-        <v>22.140787780706802</v>
+        <v>10.971728364470863</v>
       </c>
       <c r="E2">
-        <v>-6.1033730388787149</v>
+        <v>2.1180024452172574</v>
       </c>
       <c r="F2">
         <v>43.413730709801769</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.045095523439301</v>
-      </c>
-      <c r="C3">
-        <v>-4.0135975167704316</v>
+        <v>53.193297954930813</v>
+      </c>
+      <c r="D3">
+        <v>-11.490467067090265</v>
       </c>
       <c r="E3">
-        <v>-10.94974264725775</v>
+        <v>11.223432451595187</v>
       </c>
       <c r="F3">
         <v>18.292721066628474</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMtend_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.892260166868624</v>
+      </c>
+      <c r="C2">
+        <v>1.9585060053896086</v>
+      </c>
+      <c r="D2">
+        <v>22.140787836101765</v>
+      </c>
+      <c r="E2">
+        <v>-6.1033729912571744</v>
+      </c>
+      <c r="F2">
+        <v>43.4137307247276</v>
+      </c>
+      <c r="G2">
+        <v>12.00375675257763</v>
+      </c>
+      <c r="H2">
+        <v>-4.4974546051371078</v>
+      </c>
+      <c r="I2">
+        <v>11.310420852710848</v>
+      </c>
+      <c r="J2">
+        <v>7.1476600090556985</v>
+      </c>
+      <c r="K2">
+        <v>-9.9986152705722589</v>
+      </c>
+      <c r="L2">
+        <v>6.973742743387163</v>
+      </c>
+      <c r="N2">
         <v>36.567242114214963</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>7.8053612560655665</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>11.911261122497365</v>
+      </c>
+      <c r="Q2">
+        <v>-28.318604697648965</v>
+      </c>
+      <c r="S2">
+        <v>16.83150341896922</v>
+      </c>
+      <c r="V2">
+        <v>-3.1568275014697917</v>
+      </c>
+      <c r="W2">
+        <v>13.293837614857154</v>
+      </c>
+      <c r="X2">
+        <v>-4.9629255671463</v>
+      </c>
+      <c r="AA2">
+        <v>2.1084711648439907</v>
+      </c>
+      <c r="AB2">
+        <v>31.589787383982838</v>
+      </c>
+      <c r="AC2">
+        <v>6.9531664100429964</v>
+      </c>
+      <c r="AD2">
+        <v>8.276095997132245</v>
+      </c>
+      <c r="AE2">
+        <v>-7.3470654454206965</v>
+      </c>
+      <c r="AF2">
+        <v>1.8150930205509326</v>
+      </c>
+      <c r="AG2">
+        <v>1.3854688393844299</v>
+      </c>
+      <c r="AH2">
+        <v>4.4746811469441354</v>
+      </c>
+      <c r="AI2">
+        <v>31.744917915121476</v>
+      </c>
+      <c r="AJ2">
+        <v>4.5832565628116697</v>
+      </c>
+      <c r="AK2">
+        <v>4.1426310896525251</v>
+      </c>
+      <c r="AL2">
+        <v>-7.5711556965520401</v>
+      </c>
+      <c r="AM2">
         <v>10.971728364470863</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>2.1180024452172574</v>
       </c>
-      <c r="F2">
-        <v>43.413730709801769</v>
-      </c>
-      <c r="G2">
-        <v>12.003756707096755</v>
-      </c>
-      <c r="H2">
-        <v>-4.4974546470708674</v>
-      </c>
-      <c r="I2">
-        <v>11.310420810132996</v>
-      </c>
-      <c r="J2">
-        <v>7.1476599622904757</v>
-      </c>
-      <c r="K2">
-        <v>-9.9986153155367958</v>
-      </c>
-      <c r="L2">
-        <v>6.9737427018727374</v>
-      </c>
-      <c r="N2">
-        <v>36.567242052564524</v>
-      </c>
-      <c r="O2">
-        <v>7.8053612161396586</v>
-      </c>
-      <c r="P2">
-        <v>11.911261061970265</v>
-      </c>
-      <c r="Q2">
-        <v>-28.318604746921778</v>
-      </c>
-      <c r="S2">
-        <v>16.831503401499901</v>
-      </c>
-      <c r="V2">
-        <v>-3.1568275534213512</v>
-      </c>
-      <c r="W2">
-        <v>13.293837573304984</v>
-      </c>
-      <c r="X2">
-        <v>-4.9629256043516818</v>
-      </c>
-      <c r="AA2">
-        <v>2.1084711214603828</v>
-      </c>
-      <c r="AB2">
-        <v>31.589787351351845</v>
-      </c>
-      <c r="AC2">
-        <v>6.9531663666053589</v>
-      </c>
-      <c r="AD2">
-        <v>8.2760959252134398</v>
-      </c>
-      <c r="AE2">
-        <v>-7.3470654515751335</v>
-      </c>
-      <c r="AF2">
-        <v>1.815093000813448</v>
-      </c>
-      <c r="AG2">
-        <v>1.3854687829858676</v>
-      </c>
-      <c r="AH2">
-        <v>4.4746810977308371</v>
-      </c>
-      <c r="AI2">
-        <v>31.74491788614074</v>
-      </c>
-      <c r="AJ2">
-        <v>4.5832565208983453</v>
-      </c>
-      <c r="AK2">
-        <v>4.1426310518625939</v>
-      </c>
-      <c r="AL2">
-        <v>-7.5711557619280256</v>
-      </c>
-      <c r="AM2">
-        <v>10.971728307900889</v>
-      </c>
-      <c r="AN2">
-        <v>2.1180023867417503</v>
-      </c>
       <c r="AO2">
-        <v>-3.989213237099591</v>
+        <v>-3.9892131785781544</v>
       </c>
       <c r="AQ2">
-        <v>1.528075700961864</v>
+        <v>1.5280757406754049</v>
       </c>
       <c r="AR2">
-        <v>7.2551940845334002</v>
+        <v>7.2551940875041794</v>
       </c>
       <c r="AS2">
-        <v>-4.295144911151084</v>
+        <v>-4.295144875078222</v>
       </c>
       <c r="AU2">
-        <v>6.0908625069941991E-3</v>
+        <v>6.0908976244320456E-3</v>
       </c>
       <c r="AV2">
-        <v>2.9370554488039602</v>
+        <v>2.9370555202932564</v>
       </c>
       <c r="AW2">
-        <v>-2.6691574911969553</v>
+        <v>-2.66915744555277</v>
       </c>
       <c r="AX2">
-        <v>-4.5770969923015628</v>
+        <v>-4.5770969489366564</v>
       </c>
       <c r="AY2">
-        <v>-2.1114211983958171</v>
+        <v>-2.1114211440430495</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>12.045095572820799</v>
+      </c>
+      <c r="C3">
+        <v>-4.0135974824240179</v>
+      </c>
+      <c r="E3">
+        <v>-10.949742637393058</v>
+      </c>
+      <c r="F3">
+        <v>18.292721101670338</v>
+      </c>
+      <c r="G3">
+        <v>0.89635597413314372</v>
+      </c>
+      <c r="H3">
+        <v>3.8500248215591739</v>
+      </c>
+      <c r="J3">
+        <v>0.25537801585647912</v>
+      </c>
+      <c r="K3">
+        <v>19.764455706717882</v>
+      </c>
+      <c r="L3">
+        <v>-0.78531403948986167</v>
+      </c>
+      <c r="M3">
+        <v>5.6026739799826544</v>
+      </c>
+      <c r="N3">
         <v>53.193297954930813</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-31.868838111482319</v>
+      </c>
+      <c r="Q3">
+        <v>2.7570938143714727</v>
+      </c>
+      <c r="R3">
+        <v>12.864998719718898</v>
+      </c>
+      <c r="W3">
+        <v>0.27708585920134965</v>
+      </c>
+      <c r="AA3">
+        <v>-1.0857135885533467</v>
+      </c>
+      <c r="AB3">
+        <v>5.5657894190932495</v>
+      </c>
+      <c r="AC3">
+        <v>0.28751231663034105</v>
+      </c>
+      <c r="AD3">
+        <v>-3.0818761712220919</v>
+      </c>
+      <c r="AE3">
+        <v>-5.3543760685723782</v>
+      </c>
+      <c r="AF3">
+        <v>1.4542570832933848</v>
+      </c>
+      <c r="AG3">
+        <v>2.2949445477285053</v>
+      </c>
+      <c r="AH3">
+        <v>0.20580061931099181</v>
+      </c>
+      <c r="AI3">
+        <v>1.3905794849618189</v>
+      </c>
+      <c r="AJ3">
+        <v>-4.5799899923481462</v>
+      </c>
+      <c r="AK3">
+        <v>4.9582349501225167</v>
+      </c>
+      <c r="AL3">
+        <v>-5.994388583566888</v>
+      </c>
+      <c r="AM3">
         <v>-11.490467067090265</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>11.223432451595187</v>
       </c>
-      <c r="F3">
-        <v>18.292721066628474</v>
-      </c>
-      <c r="G3">
-        <v>0.89635594715500133</v>
-      </c>
-      <c r="H3">
-        <v>3.8500247689722755</v>
-      </c>
-      <c r="J3">
-        <v>0.25537797093488734</v>
-      </c>
-      <c r="K3">
-        <v>19.764455658531148</v>
-      </c>
-      <c r="L3">
-        <v>-0.78531406977185725</v>
-      </c>
-      <c r="M3">
-        <v>5.6025147079017472</v>
-      </c>
-      <c r="N3">
-        <v>53.193297909383432</v>
-      </c>
-      <c r="P3">
-        <v>-31.868838155775933</v>
-      </c>
-      <c r="Q3">
-        <v>2.757093760566903</v>
-      </c>
-      <c r="R3">
-        <v>12.864998658809071</v>
-      </c>
-      <c r="W3">
-        <v>0.27708578755152757</v>
-      </c>
-      <c r="AA3">
-        <v>-1.0857136639318128</v>
-      </c>
-      <c r="AB3">
-        <v>5.5657893920233334</v>
-      </c>
-      <c r="AC3">
-        <v>0.2875122700928614</v>
-      </c>
-      <c r="AD3">
-        <v>-3.0818762172547451</v>
-      </c>
-      <c r="AE3">
-        <v>-5.3543760857530742</v>
-      </c>
-      <c r="AF3">
-        <v>1.454257072343097</v>
-      </c>
-      <c r="AG3">
-        <v>2.2949445046987478</v>
-      </c>
-      <c r="AH3">
-        <v>0.20580059924580496</v>
-      </c>
-      <c r="AI3">
-        <v>1.3905794374914819</v>
-      </c>
-      <c r="AJ3">
-        <v>-4.57999004567273</v>
-      </c>
-      <c r="AK3">
-        <v>4.9582349097324823</v>
-      </c>
-      <c r="AL3">
-        <v>-5.9943886301327041</v>
-      </c>
-      <c r="AM3">
-        <v>-11.490467141655557</v>
-      </c>
-      <c r="AN3">
-        <v>11.223432400093742</v>
-      </c>
       <c r="AO3">
-        <v>20.773883468111848</v>
+        <v>20.773883523733986</v>
       </c>
       <c r="AP3">
-        <v>-7.5313570536262375</v>
+        <v>-7.5313570103585334</v>
       </c>
       <c r="AQ3">
-        <v>-3.2063479721653891</v>
+        <v>-3.2063479174769896</v>
       </c>
       <c r="AS3">
-        <v>10.059810539743694</v>
+        <v>10.05981058126855</v>
       </c>
       <c r="AT3">
-        <v>-0.2470231402962213</v>
+        <v>-0.24702307704984605</v>
       </c>
       <c r="AU3">
-        <v>-4.6062453135259602</v>
+        <v>-4.6062452581008984</v>
       </c>
       <c r="AV3">
-        <v>-3.9269978560395202</v>
+        <v>-3.9269977618868381</v>
       </c>
       <c r="AW3">
-        <v>-2.5785240216517309</v>
+        <v>-2.5785239734769618</v>
       </c>
       <c r="AX3">
-        <v>-31.717273375037536</v>
+        <v>-31.717273343709422</v>
       </c>
       <c r="AY3">
-        <v>-16.707574536454445</v>
+        <v>-16.707574505489731</v>
       </c>
     </row>
   </sheetData>
